--- a/currentbuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/currentbuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NoBasisFamilyRelation</t>
+    <t>NoBasisFamilyRelationVS</t>
   </si>
   <si>
     <t>Title</t>

--- a/currentbuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/currentbuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NoBasisFamilyRelationVS</t>
+    <t>NoBasisFamilyRelation</t>
   </si>
   <si>
     <t>Title</t>
